--- a/output/4-married-homevalue.xlsx
+++ b/output/4-married-homevalue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://homesite0-my.sharepoint.com/personal/ltian_homesite_com/Documents/Documents/workspace/github_workspace/parental-wealth-impact/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ltian\OneDrive - homesite.com\Documents\workspace\github_workspace\parental-wealth-impact\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95D5352E-CE74-4EA1-BE8A-EA0A4EBBCE17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{95D5352E-CE74-4EA1-BE8A-EA0A4EBBCE17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{8D240AB9-0F64-4CB1-86B4-9DE4FAFBA1CB}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,137 +20,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t/>
   </si>
   <si>
-    <t>(Intercept)</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>AIC</t>
-  </si>
-  <si>
-    <t>BIC</t>
-  </si>
-  <si>
-    <t>Pseudo R2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> *** p &lt; 0.001;  ** p &lt; 0.01;  * p &lt; 0.05.</t>
   </si>
   <si>
-    <t>-3.19 *** (0.26)</t>
-  </si>
-  <si>
-    <t>0.09 *** (0.01)</t>
-  </si>
-  <si>
-    <t>-0.15 *** (0.04)</t>
-  </si>
-  <si>
     <t>0.22 *** (0.04)</t>
   </si>
   <si>
-    <t>0.02 * (0.01)</t>
-  </si>
-  <si>
-    <t>0.04 *** (0.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     </t>
-  </si>
-  <si>
-    <t>-5.96 *** (0.58)</t>
-  </si>
-  <si>
-    <t>-0.10 * (0.05)</t>
-  </si>
-  <si>
     <t>0.20 *** (0.05)</t>
   </si>
   <si>
-    <t>-0.01 (0.01)</t>
-  </si>
-  <si>
-    <t>0.03 (0.02)</t>
-  </si>
-  <si>
-    <t>0.17 * (0.08)</t>
-  </si>
-  <si>
-    <t>0.14 (0.14)</t>
-  </si>
-  <si>
-    <t>0.04 * (0.02)</t>
-  </si>
-  <si>
-    <t>0.66 ** (0.24)</t>
-  </si>
-  <si>
-    <t>0.02 (0.02)</t>
-  </si>
-  <si>
-    <t>-0.01 (0.15)</t>
-  </si>
-  <si>
-    <t>-2.07 *** (0.23)</t>
-  </si>
-  <si>
-    <t>0.07 *** (0.01)</t>
-  </si>
-  <si>
-    <t>-0.10 ** (0.03)</t>
-  </si>
-  <si>
-    <t>0.13 *** (0.04)</t>
-  </si>
-  <si>
-    <t>0.03 ** (0.01)</t>
-  </si>
-  <si>
-    <t>-4.87 *** (0.54)</t>
-  </si>
-  <si>
-    <t>0.06 *** (0.01)</t>
-  </si>
-  <si>
-    <t>-0.03 (0.05)</t>
-  </si>
-  <si>
-    <t>0.06 (0.05)</t>
-  </si>
-  <si>
-    <t>0.01 (0.01)</t>
-  </si>
-  <si>
-    <t>0.01 (0.02)</t>
-  </si>
-  <si>
-    <t>0.30 *** (0.09)</t>
-  </si>
-  <si>
-    <t>0.30 * (0.12)</t>
-  </si>
-  <si>
-    <t>-0.01 (0.02)</t>
-  </si>
-  <si>
-    <t>0.17 (0.23)</t>
-  </si>
-  <si>
-    <t>0.19 *** (0.04)</t>
-  </si>
-  <si>
-    <t>0.10 *** (0.02)</t>
-  </si>
-  <si>
-    <t>-0.18 (0.13)</t>
-  </si>
-  <si>
     <t>Child</t>
   </si>
   <si>
@@ -187,9 +73,6 @@
     <t>Father's years of schooling</t>
   </si>
   <si>
-    <t>Table 3. Determinant of home ownership among married men and women</t>
-  </si>
-  <si>
     <t>Managerial occupation (base: non-manager job)</t>
   </si>
   <si>
@@ -197,6 +80,156 @@
   </si>
   <si>
     <t>Net worth of parental household (logged)</t>
+  </si>
+  <si>
+    <t>Table 4. Determinant of home value among married men and women</t>
+  </si>
+  <si>
+    <t>(Intercept): 1</t>
+  </si>
+  <si>
+    <t>(Intercept): 2</t>
+  </si>
+  <si>
+    <t>-8.64 *** (1.00)</t>
+  </si>
+  <si>
+    <t>2.06 *** (0.02)</t>
+  </si>
+  <si>
+    <t>0.30 *** (0.02)</t>
+  </si>
+  <si>
+    <t>-0.69 *** (0.14)</t>
+  </si>
+  <si>
+    <t>0.86 *** (0.15)</t>
+  </si>
+  <si>
+    <t>0.16 *** (0.04)</t>
+  </si>
+  <si>
+    <t>0.30 *** (0.05)</t>
+  </si>
+  <si>
+    <t>5709</t>
+  </si>
+  <si>
+    <t>Log-likelihood</t>
+  </si>
+  <si>
+    <t>-7377.859</t>
+  </si>
+  <si>
+    <t>-19.80 *** (1.89)</t>
+  </si>
+  <si>
+    <t>1.95 *** (0.02)</t>
+  </si>
+  <si>
+    <t>0.26 *** (0.03)</t>
+  </si>
+  <si>
+    <t>0.72 ** (0.27)</t>
+  </si>
+  <si>
+    <t>0.65 (0.44)</t>
+  </si>
+  <si>
+    <t>0.13 * (0.06)</t>
+  </si>
+  <si>
+    <t>1.38 * (0.60)</t>
+  </si>
+  <si>
+    <t>1.10 *** (0.14)</t>
+  </si>
+  <si>
+    <t>0.06 (0.06)</t>
+  </si>
+  <si>
+    <t>0.05 (0.45)</t>
+  </si>
+  <si>
+    <t>-0.47 ** (0.17)</t>
+  </si>
+  <si>
+    <t>0.73 *** (0.17)</t>
+  </si>
+  <si>
+    <t>0.01 (0.05)</t>
+  </si>
+  <si>
+    <t>3834</t>
+  </si>
+  <si>
+    <t>-5012.023</t>
+  </si>
+  <si>
+    <t>-5.15 *** (0.91)</t>
+  </si>
+  <si>
+    <t>2.07 *** (0.02)</t>
+  </si>
+  <si>
+    <t>0.23 *** (0.01)</t>
+  </si>
+  <si>
+    <t>-0.40 *** (0.12)</t>
+  </si>
+  <si>
+    <t>0.49 *** (0.14)</t>
+  </si>
+  <si>
+    <t>0.18 *** (0.04)</t>
+  </si>
+  <si>
+    <t>6225</t>
+  </si>
+  <si>
+    <t>-8108.436</t>
+  </si>
+  <si>
+    <t>-14.10 *** (1.70)</t>
+  </si>
+  <si>
+    <t>1.93 *** (0.02)</t>
+  </si>
+  <si>
+    <t>0.18 *** (0.02)</t>
+  </si>
+  <si>
+    <t>1.08 *** (0.26)</t>
+  </si>
+  <si>
+    <t>0.99 * (0.40)</t>
+  </si>
+  <si>
+    <t>0.01 (0.06)</t>
+  </si>
+  <si>
+    <t>0.45 (0.63)</t>
+  </si>
+  <si>
+    <t>0.81 *** (0.13)</t>
+  </si>
+  <si>
+    <t>0.35 *** (0.06)</t>
+  </si>
+  <si>
+    <t>-0.54 (0.39)</t>
+  </si>
+  <si>
+    <t>-0.11 (0.14)</t>
+  </si>
+  <si>
+    <t>0.23 (0.16)</t>
+  </si>
+  <si>
+    <t>0.05 (0.04)</t>
+  </si>
+  <si>
+    <t>0.09 (0.05)</t>
   </si>
 </sst>
 </file>
@@ -290,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -298,33 +331,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,376 +655,327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.44140625" customWidth="1"/>
-    <col min="2" max="5" width="12.77734375" customWidth="1"/>
+    <col min="2" max="5" width="12.77734375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="A1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="10"/>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>39</v>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="6">
-        <v>3349</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2100</v>
-      </c>
-      <c r="D19" s="6">
-        <v>3746</v>
-      </c>
-      <c r="E19" s="6">
-        <v>2221</v>
+      <c r="C19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3">
-        <v>3784.38</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2290.29</v>
-      </c>
-      <c r="D20" s="3">
-        <v>4300.5200000000004</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2421.62</v>
-      </c>
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3">
-        <v>3821.08</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2363.7399999999998</v>
-      </c>
-      <c r="D21" s="3">
-        <v>4337.8900000000003</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2495.79</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0.17</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="A22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E22" s="6" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A22:E22"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A1:E1"/>
@@ -1001,6 +986,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C018C3B604220D4ABA0D76E6504CE423" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3916b3f6366f1d09ade53b7218a405fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="85b09b79-f6d4-46dc-adb3-c0b67f928b02" xmlns:ns4="0570a3a4-0353-4610-8d2f-2ca9dc0cd5ab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa7979daed455a21e500545ddbc55421" ns3:_="" ns4:_="">
     <xsd:import namespace="85b09b79-f6d4-46dc-adb3-c0b67f928b02"/>
@@ -1211,22 +1211,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB16099E-4EB8-4D6B-8A6F-9793F2C84DC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9E9B1BD-5E95-45FF-B3A3-AC995E0E1E47}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="0570a3a4-0353-4610-8d2f-2ca9dc0cd5ab"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="85b09b79-f6d4-46dc-adb3-c0b67f928b02"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81275AE2-86E8-421A-8B39-67BAD8964CA3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1243,29 +1253,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB16099E-4EB8-4D6B-8A6F-9793F2C84DC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9E9B1BD-5E95-45FF-B3A3-AC995E0E1E47}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="85b09b79-f6d4-46dc-adb3-c0b67f928b02"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0570a3a4-0353-4610-8d2f-2ca9dc0cd5ab"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/output/4-married-homevalue.xlsx
+++ b/output/4-married-homevalue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ltian\OneDrive - homesite.com\Documents\workspace\github_workspace\parental-wealth-impact\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{95D5352E-CE74-4EA1-BE8A-EA0A4EBBCE17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{8D240AB9-0F64-4CB1-86B4-9DE4FAFBA1CB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{23ABD6D2-6590-447F-A62D-B91E3B60F47A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet 1" sheetId="1" r:id="rId1"/>
@@ -340,15 +340,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -359,6 +350,15 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,52 +657,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.44140625" customWidth="1"/>
-    <col min="2" max="5" width="12.77734375" style="12" customWidth="1"/>
+    <col min="2" max="5" width="12.77734375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -710,16 +710,16 @@
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -727,25 +727,25 @@
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -753,12 +753,12 @@
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -766,12 +766,12 @@
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -779,12 +779,12 @@
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -792,12 +792,12 @@
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -805,12 +805,12 @@
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -818,21 +818,21 @@
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -840,12 +840,12 @@
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -853,25 +853,25 @@
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -879,16 +879,16 @@
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -896,16 +896,16 @@
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -913,16 +913,16 @@
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -930,46 +930,46 @@
       <c r="A20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1222,15 +1222,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9E9B1BD-5E95-45FF-B3A3-AC995E0E1E47}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="0570a3a4-0353-4610-8d2f-2ca9dc0cd5ab"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="85b09b79-f6d4-46dc-adb3-c0b67f928b02"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="85b09b79-f6d4-46dc-adb3-c0b67f928b02"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
